--- a/ig/ch-epreg/StructureDefinition-ch-epreg-observation-preg-progress.xlsx
+++ b/ig/ch-epreg/StructureDefinition-ch-epreg-observation-preg-progress.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="492">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T15:10:51+00:00</t>
+    <t>2025-12-16T12:22:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -386,7 +386,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -522,7 +522,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -551,7 +551,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -634,7 +634,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -796,7 +796,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -841,7 +841,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1070,7 +1070,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1102,7 +1102,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1158,7 +1158,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1191,7 +1191,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1203,7 +1203,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1231,7 +1231,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1311,7 +1311,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1394,7 +1394,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1431,7 +1431,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(Observation|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1453,7 +1453,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1512,6 +1512,9 @@
   </si>
   <si>
     <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1908,7 +1911,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="78.95703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.21484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.7421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -6740,7 +6743,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>320</v>
       </c>
@@ -9703,7 +9706,7 @@
         <v>477</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>209</v>
+        <v>478</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>83</v>
@@ -9739,7 +9742,7 @@
         <v>83</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>212</v>
@@ -9754,12 +9757,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9785,13 +9788,13 @@
         <v>321</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>323</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>325</v>
@@ -9843,7 +9846,7 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -9861,7 +9864,7 @@
         <v>83</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>328</v>
@@ -9878,10 +9881,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9907,13 +9910,13 @@
         <v>192</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>335</v>
@@ -9965,7 +9968,7 @@
         <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
@@ -10000,10 +10003,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10087,7 +10090,7 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10122,10 +10125,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10151,10 +10154,10 @@
         <v>84</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>401</v>
@@ -10209,7 +10212,7 @@
         <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -10244,12 +10247,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP69">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
